--- a/spec/support/files/sheet_basic_valid.xlsx
+++ b/spec/support/files/sheet_basic_valid.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\cnsfabrics\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cns 123</t>
   </si>
@@ -39,13 +37,22 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>checks, stripes</t>
+  </si>
+  <si>
+    <t>stripes, voile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +64,22 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,9 +111,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -107,8 +132,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -167,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,21 +414,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="13.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -411,8 +439,11 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -422,8 +453,11 @@
       <c r="C2" s="4">
         <v>2000</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -432,10 +466,18 @@
       </c>
       <c r="C3" s="4">
         <v>3500</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/spec/support/files/sheet_basic_valid.xlsx
+++ b/spec/support/files/sheet_basic_valid.xlsx
@@ -24,12 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>cns 123</t>
-  </si>
-  <si>
-    <t>cns 245</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>stripes, voile</t>
+  </si>
+  <si>
+    <t>test 123</t>
+  </si>
+  <si>
+    <t>test 245</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -431,21 +431,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>44</v>
@@ -454,12 +454,12 @@
         <v>2000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>55</v>
@@ -468,7 +468,7 @@
         <v>3500</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
